--- a/va_facility_data_2025-02-20/La Grande VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Grande%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/La Grande VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Grande%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R176240c24a24444fae3c85d2d328f491"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2d83cc3cae564051a5bf6ecdbc905f63"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc3c01b8fd4a741f3826094557bd1ba45"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb13afad52e4340188eee13eec4f94229"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R88304b94ff4d494592b2f1bf2ba3fad5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb986a90230e94987aeb6e67f87874ba8"/>
   </x:sheets>
 </x:workbook>
 </file>
